--- a/SIP Hours.xlsx
+++ b/SIP Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Repositories\UAT-SIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BADA749-B8ED-462A-860E-B64ED98045B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74DAB83-04A6-472E-9415-7BBD4BE870F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="150" windowWidth="12060" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="150" windowWidth="16005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Month/Day/Year</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Time Frame</t>
   </si>
   <si>
-    <t>Hours.Minutes</t>
-  </si>
-  <si>
     <t>Research</t>
   </si>
   <si>
@@ -60,6 +57,24 @@
   </si>
   <si>
     <t>3:39 to 5:22</t>
+  </si>
+  <si>
+    <t>Time Decimal</t>
+  </si>
+  <si>
+    <t>Time HacknPlan</t>
+  </si>
+  <si>
+    <t>1h43m</t>
+  </si>
+  <si>
+    <t>Total Logged</t>
+  </si>
+  <si>
+    <t>2h4m</t>
+  </si>
+  <si>
+    <t>3h47m</t>
   </si>
 </sst>
 </file>
@@ -378,18 +393,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,40 +415,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44914</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G2">
+        <f xml:space="preserve"> F2</f>
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E2">
-        <f xml:space="preserve"> D2</f>
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>1.72</v>
-      </c>
-      <c r="E3">
-        <f xml:space="preserve"> E2 + D3</f>
-        <v>3.79</v>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1.71</v>
+      </c>
+      <c r="G3">
+        <f xml:space="preserve"> G2 + F3</f>
+        <v>3.78</v>
       </c>
     </row>
   </sheetData>

--- a/SIP Hours.xlsx
+++ b/SIP Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Repositories\UAT-SIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74DAB83-04A6-472E-9415-7BBD4BE870F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7BEFB1-85A6-4978-8098-40CE195C1530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="150" windowWidth="16005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Month/Day/Year</t>
   </si>
@@ -68,13 +68,22 @@
     <t>1h43m</t>
   </si>
   <si>
-    <t>Total Logged</t>
-  </si>
-  <si>
     <t>2h4m</t>
   </si>
   <si>
     <t>3h47m</t>
+  </si>
+  <si>
+    <t>Script 1</t>
+  </si>
+  <si>
+    <t>4:53 to 10:15</t>
+  </si>
+  <si>
+    <t>5h22m</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -393,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -438,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2.0699999999999998</v>
@@ -456,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>1.71</v>
@@ -464,6 +473,30 @@
       <c r="G3">
         <f xml:space="preserve"> G2 + F3</f>
         <v>3.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>5.36</v>
+      </c>
+      <c r="G4">
+        <f>G3 + F4</f>
+        <v>9.14</v>
       </c>
     </row>
   </sheetData>

--- a/SIP Hours.xlsx
+++ b/SIP Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Repositories\UAT-SIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7BEFB1-85A6-4978-8098-40CE195C1530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E350AF-C3C0-4A6E-9F00-1603F406062D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="150" windowWidth="16005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Month/Day/Year</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>9:42 to 12:33</t>
+  </si>
+  <si>
+    <t>2h51m</t>
+  </si>
+  <si>
+    <t>8h13m</t>
+  </si>
+  <si>
+    <t>Script 2</t>
+  </si>
+  <si>
+    <t>12:56 to 5:58</t>
+  </si>
+  <si>
+    <t>5h2m</t>
   </si>
 </sst>
 </file>
@@ -402,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,15 +506,55 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4">
         <v>5.36</v>
       </c>
       <c r="G4">
         <f>G3 + F4</f>
         <v>9.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>2.85</v>
+      </c>
+      <c r="G5">
+        <f>G4 + F5</f>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>5.03</v>
+      </c>
+      <c r="G6">
+        <f>G5 + F6</f>
+        <v>17.02</v>
       </c>
     </row>
   </sheetData>

--- a/SIP Hours.xlsx
+++ b/SIP Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Repositories\UAT-SIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E350AF-C3C0-4A6E-9F00-1603F406062D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BC835D-EE81-475B-8ECC-6C90094CACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="150" windowWidth="16005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Month/Day/Year</t>
   </si>
@@ -102,6 +102,33 @@
   </si>
   <si>
     <t>5h2m</t>
+  </si>
+  <si>
+    <t>Script 3</t>
+  </si>
+  <si>
+    <t>12:22 to 1:22</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>1:25 to 2:43</t>
+  </si>
+  <si>
+    <t>1h18m</t>
+  </si>
+  <si>
+    <t>Second Ability</t>
+  </si>
+  <si>
+    <t>2:51 to 5:18</t>
+  </si>
+  <si>
+    <t>2h27m</t>
   </si>
 </sst>
 </file>
@@ -137,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +585,63 @@
         <v>17.02</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>G6 + F7</f>
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>1.3</v>
+      </c>
+      <c r="G8">
+        <f>G7 + F8</f>
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G9">
+        <f>G8 + F9</f>
+        <v>21.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SIP Hours.xlsx
+++ b/SIP Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Repositories\UAT-SIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositories\UAT-SIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BC835D-EE81-475B-8ECC-6C90094CACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC6485-D23E-4166-A484-13C257AD38F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="150" windowWidth="16005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Month/Day/Year</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>2h27m</t>
+  </si>
+  <si>
+    <t>Second Scene</t>
+  </si>
+  <si>
+    <t>9:23 to 10:29</t>
+  </si>
+  <si>
+    <t>1h6m</t>
   </si>
 </sst>
 </file>
@@ -164,10 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +548,7 @@
         <v>5.36</v>
       </c>
       <c r="G4">
-        <f>G3 + F4</f>
+        <f t="shared" ref="G4:G9" si="0">G3 + F4</f>
         <v>9.14</v>
       </c>
     </row>
@@ -562,7 +572,7 @@
         <v>2.85</v>
       </c>
       <c r="G5">
-        <f>G4 + F5</f>
+        <f t="shared" si="0"/>
         <v>11.99</v>
       </c>
     </row>
@@ -581,7 +591,7 @@
         <v>5.03</v>
       </c>
       <c r="G6">
-        <f>G5 + F6</f>
+        <f t="shared" si="0"/>
         <v>17.02</v>
       </c>
     </row>
@@ -602,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f>G6 + F7</f>
+        <f t="shared" si="0"/>
         <v>18.02</v>
       </c>
     </row>
@@ -620,7 +630,7 @@
         <v>1.3</v>
       </c>
       <c r="G8">
-        <f>G7 + F8</f>
+        <f t="shared" si="0"/>
         <v>19.32</v>
       </c>
     </row>
@@ -638,9 +648,33 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G9">
-        <f>G8 + F9</f>
+        <f t="shared" si="0"/>
         <v>21.77</v>
       </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G10">
+        <f>G9 + F10</f>
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIP Hours.xlsx
+++ b/SIP Hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositories\UAT-SIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC6485-D23E-4166-A484-13C257AD38F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55489644-0AEC-4039-B50F-93DC2CC65C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Month/Day/Year</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>1h6m</t>
+  </si>
+  <si>
+    <t>1:40 to 3:08</t>
+  </si>
+  <si>
+    <t>Art/Animation</t>
+  </si>
+  <si>
+    <t>9:46 to 11:13</t>
+  </si>
+  <si>
+    <t>1h28m</t>
+  </si>
+  <si>
+    <t>1h27m</t>
+  </si>
+  <si>
+    <t>2h55m</t>
   </si>
 </sst>
 </file>
@@ -461,7 +479,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +691,48 @@
         <v>22.87</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>1.46</v>
+      </c>
+      <c r="G11">
+        <f>G10 + F11</f>
+        <v>24.330000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>1.45</v>
+      </c>
+      <c r="G12">
+        <f>G11 + F12</f>
+        <v>25.78</v>
+      </c>
+    </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
     </row>

--- a/SIP Hours.xlsx
+++ b/SIP Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositories\UAT-SIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55489644-0AEC-4039-B50F-93DC2CC65C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03D5053-081B-4625-B620-ED838E7B06E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Month/Day/Year</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>2h55m</t>
+  </si>
+  <si>
+    <t>Particles</t>
+  </si>
+  <si>
+    <t>9:52 to 11:29</t>
+  </si>
+  <si>
+    <t>1h37m</t>
   </si>
 </sst>
 </file>
@@ -479,7 +488,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +742,32 @@
         <v>25.78</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>1.61</v>
+      </c>
+      <c r="G13">
+        <f>G12 + F13</f>
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
     </row>

--- a/SIP Hours.xlsx
+++ b/SIP Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositories\UAT-SIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03D5053-081B-4625-B620-ED838E7B06E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EF076D-C216-4EA6-BC8C-2D51ECEC508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Month/Day/Year</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>1h37m</t>
+  </si>
+  <si>
+    <t>12:35 to 3:05</t>
+  </si>
+  <si>
+    <t>3h30m</t>
+  </si>
+  <si>
+    <t>5h7m</t>
   </si>
 </sst>
 </file>
@@ -488,7 +497,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,8 +773,27 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44924</v>
+      </c>
       <c r="B14" t="s">
         <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>3.5</v>
+      </c>
+      <c r="G14">
+        <f>G13 + F14</f>
+        <v>30.89</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">

--- a/SIP Hours.xlsx
+++ b/SIP Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositories\UAT-SIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Repositories\UAT-SIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EF076D-C216-4EA6-BC8C-2D51ECEC508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615926E3-E41B-4C75-8FB1-2A247DF04F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="315" windowWidth="16005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Month/Day/Year</t>
   </si>
@@ -174,6 +174,33 @@
   </si>
   <si>
     <t>5h7m</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>1:15 to 4:38</t>
+  </si>
+  <si>
+    <t>3h23m</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>4:42 to 7:40</t>
+  </si>
+  <si>
+    <t>8:30 to 8:51</t>
+  </si>
+  <si>
+    <t>2h58m</t>
+  </si>
+  <si>
+    <t>21m</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
   </si>
 </sst>
 </file>
@@ -497,7 +524,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,8 +823,62 @@
         <v>30.89</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15">
+        <v>3.38</v>
+      </c>
+      <c r="G15">
+        <f>G14 + F15</f>
+        <v>34.270000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>2.96</v>
+      </c>
+      <c r="G16">
+        <f xml:space="preserve"> G15 + F16</f>
+        <v>37.230000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>0.35</v>
+      </c>
+      <c r="G17">
+        <f xml:space="preserve"> G16 + F17</f>
+        <v>37.580000000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIP Hours.xlsx
+++ b/SIP Hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Repositories\UAT-SIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615926E3-E41B-4C75-8FB1-2A247DF04F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A2A5A0-4A64-4802-B7DD-7BD522368272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="315" windowWidth="16005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Month/Day/Year</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Adjustments</t>
+  </si>
+  <si>
+    <t>12:08 to 12:45</t>
+  </si>
+  <si>
+    <t>37m</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +738,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G10">
-        <f>G9 + F10</f>
+        <f t="shared" ref="G10:G15" si="1">G9 + F10</f>
         <v>22.87</v>
       </c>
     </row>
@@ -753,7 +759,7 @@
         <v>1.46</v>
       </c>
       <c r="G11">
-        <f>G10 + F11</f>
+        <f t="shared" si="1"/>
         <v>24.330000000000002</v>
       </c>
     </row>
@@ -774,7 +780,7 @@
         <v>1.45</v>
       </c>
       <c r="G12">
-        <f>G11 + F12</f>
+        <f t="shared" si="1"/>
         <v>25.78</v>
       </c>
     </row>
@@ -795,7 +801,7 @@
         <v>1.61</v>
       </c>
       <c r="G13">
-        <f>G12 + F13</f>
+        <f t="shared" si="1"/>
         <v>27.39</v>
       </c>
     </row>
@@ -819,7 +825,7 @@
         <v>3.5</v>
       </c>
       <c r="G14">
-        <f>G13 + F14</f>
+        <f t="shared" si="1"/>
         <v>30.89</v>
       </c>
     </row>
@@ -840,7 +846,7 @@
         <v>3.38</v>
       </c>
       <c r="G15">
-        <f>G14 + F15</f>
+        <f t="shared" si="1"/>
         <v>34.270000000000003</v>
       </c>
     </row>
@@ -862,7 +868,7 @@
         <v>37.230000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>54</v>
       </c>
@@ -878,6 +884,27 @@
       <c r="G17">
         <f xml:space="preserve"> G16 + F17</f>
         <v>37.580000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <v>0.61</v>
+      </c>
+      <c r="G18">
+        <f>G17+F18</f>
+        <v>38.190000000000005</v>
       </c>
     </row>
   </sheetData>
